--- a/5 Xloopup vs Vlookup/XLookup vs VLookup - LOOKUPS.xlsx
+++ b/5 Xloopup vs Vlookup/XLookup vs VLookup - LOOKUPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\6. Xlookup vs Vlookup\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/5 Xloopup vs Vlookup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE66B31-DF71-46DC-A608-CA86A7130A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{6AE66B31-DF71-46DC-A608-CA86A7130A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB106EC-09B4-4D76-892F-7C799BEAC6A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="49">
   <si>
     <t>Type of Paper</t>
   </si>
@@ -183,6 +205,9 @@
   </si>
   <si>
     <t>Paper Company</t>
+  </si>
+  <si>
+    <t>Index match alt</t>
   </si>
 </sst>
 </file>
@@ -1197,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B5:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1352,7 +1377,10 @@
       <c r="E9" s="22">
         <v>42780</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="59">
+        <f>VLOOKUP(G6,B5:E13,4,)</f>
+        <v>42765</v>
+      </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="33"/>
@@ -1449,7 +1477,10 @@
       <c r="I14" s="50">
         <v>18</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="60">
+        <f>VLOOKUP(G6,B5:E13,2,FALSE)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G15" s="40"/>
@@ -1483,7 +1514,7 @@
       </c>
       <c r="H19" s="44">
         <f>I14*J14</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="33"/>
@@ -1494,7 +1525,7 @@
       </c>
       <c r="H20" s="44">
         <f>H19*0.07</f>
-        <v>0</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
@@ -1515,7 +1546,7 @@
       </c>
       <c r="H22" s="55">
         <f>H19-(H19*H21)+H20</f>
-        <v>0</v>
+        <v>277.2</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
@@ -1551,7 +1582,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1846,7 +1877,10 @@
       <c r="K21" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="61"/>
+      <c r="L21" s="61">
+        <f>HLOOKUP(VLOOKUP(HLOOKUP!K6,VLOOKUP!B5:E13,3,FALSE),HLOOKUP!B5:I8,4)</f>
+        <v>0.3</v>
+      </c>
       <c r="M21" s="32"/>
       <c r="N21" s="33"/>
     </row>
@@ -1856,7 +1890,7 @@
       </c>
       <c r="L22" s="55">
         <f>L19-(L19*L21)+L20</f>
-        <v>385.2</v>
+        <v>277.2</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="33"/>
@@ -1897,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D58DF6B-9B8E-4301-85B4-6C9C2FB29E0B}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="67" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2052,7 +2086,10 @@
       <c r="E9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="59">
+        <f>_xlfn.XLOOKUP(G6,E5:E13,D5:D13,"",)</f>
+        <v>42765</v>
+      </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="33"/>
@@ -2149,7 +2186,10 @@
       <c r="I14" s="50">
         <v>18</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="60">
+        <f>_xlfn.XLOOKUP(G6,E5:E13,B5:B13,0,)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G15" s="40"/>
@@ -2183,7 +2223,7 @@
       </c>
       <c r="H19" s="44">
         <f>I14*J14</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="33"/>
@@ -2194,7 +2234,7 @@
       </c>
       <c r="H20" s="44">
         <f>H19*0.07</f>
-        <v>0</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="33"/>
@@ -2215,7 +2255,7 @@
       </c>
       <c r="H22" s="55">
         <f>H19-(H19*H21)+H20</f>
-        <v>0</v>
+        <v>277.2</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="33"/>
@@ -2489,7 +2529,10 @@
       <c r="K45" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="61"/>
+      <c r="L45" s="61">
+        <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(K30,E5:E13,C5:C13,0,0),C29:I29,C32:I32,0,-1)</f>
+        <v>0.3</v>
+      </c>
       <c r="M45" s="32"/>
       <c r="N45" s="33"/>
     </row>
@@ -2499,7 +2542,7 @@
       </c>
       <c r="L46" s="55">
         <f>L43-(L43*L45)+L44</f>
-        <v>385.2</v>
+        <v>277.2</v>
       </c>
       <c r="M46" s="32"/>
       <c r="N46" s="33"/>
@@ -2512,14 +2555,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K27:N27"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="C27:H27"/>
-    <mergeCell ref="K27:N27"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6" xr:uid="{336CD533-5550-4440-AF70-4726DF8ADBAE}">
       <formula1>$E$6:$E$13</formula1>
     </dataValidation>
@@ -2527,7 +2570,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A96C27A6-5AF2-495B-818E-5E016364DE20}">
           <x14:formula1>
             <xm:f>VLOOKUP!$B$6:$B$13</xm:f>
@@ -2542,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2560,9 +2603,10 @@
     <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
@@ -2578,7 +2622,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="63" t="s">
         <v>31</v>
       </c>
@@ -2594,8 +2638,8 @@
       <c r="K3" s="63"/>
       <c r="L3" s="63"/>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="B5" s="69" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="68" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="68"/>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2663,7 +2707,7 @@
       <c r="K7" s="32"/>
       <c r="L7" s="33"/>
     </row>
-    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="B8" s="68"/>
       <c r="C8" s="7" t="s">
         <v>3</v>
@@ -2687,7 +2731,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="33"/>
     </row>
-    <row r="9" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B9" s="68"/>
       <c r="C9" s="7" t="s">
         <v>4</v>
@@ -2711,7 +2755,7 @@
       <c r="K9" s="32"/>
       <c r="L9" s="33"/>
     </row>
-    <row r="10" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B10" s="68"/>
       <c r="C10" s="7" t="s">
         <v>5</v>
@@ -2733,7 +2777,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="33"/>
     </row>
-    <row r="11" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B11" s="68"/>
       <c r="C11" s="7" t="s">
         <v>6</v>
@@ -2755,7 +2799,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="33"/>
     </row>
-    <row r="12" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="68"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -2779,7 +2823,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="33"/>
     </row>
-    <row r="13" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="68"/>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -2809,7 +2853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B14" s="68"/>
       <c r="C14" s="7" t="s">
         <v>9</v>
@@ -2832,12 +2876,15 @@
       <c r="J14" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="62"/>
+      <c r="K14" s="62">
+        <f>INDEX($C$6:$G$16,MATCH(J14,$C$6:$C$16,0), MATCH(I14,C6:$G$6,0))</f>
+        <v>18</v>
+      </c>
       <c r="L14" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="68"/>
       <c r="C15" s="7" t="s">
         <v>10</v>
@@ -2860,10 +2907,13 @@
       <c r="J15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="62"/>
+      <c r="K15" s="62" cm="1">
+        <f t="array" ref="K15">_xlfn.XLOOKUP(J15, C6:C16,_xlfn.XLOOKUP(I15,C6:G6,C6:G16))</f>
+        <v>18</v>
+      </c>
       <c r="L15" s="41"/>
     </row>
-    <row r="16" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B16" s="68"/>
       <c r="C16" s="7" t="s">
         <v>11</v>
@@ -2886,8 +2936,18 @@
       <c r="J16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="62" cm="1">
+        <f t="array" ref="K16">_xlfn.XLOOKUP(J16,C6:C16,_xlfn.XLOOKUP(I16,C6:G6,C6:G16))</f>
+        <v>28</v>
+      </c>
       <c r="L16" s="41"/>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16">
+        <f>INDEX($C$6:$G$16,MATCH(J16,$C$6:$C$16,0), MATCH(I16,C6:$G$6,0))</f>
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I17" s="31"/>
@@ -2909,7 +2969,7 @@
       </c>
       <c r="J19" s="44">
         <f>K14*L14</f>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="33"/>
@@ -2920,7 +2980,7 @@
       </c>
       <c r="J20" s="44">
         <f>J19*0.07</f>
-        <v>0</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="33"/>
@@ -2941,7 +3001,7 @@
       </c>
       <c r="J22" s="55">
         <f>J19-(J19*J21)+J20</f>
-        <v>0</v>
+        <v>277.2</v>
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="33"/>
